--- a/inf_basic/Project2_datafile.xlsx
+++ b/inf_basic/Project2_datafile.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09DD6CA5-3551-4A47-A45D-34A2E50A3BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94A3CDB-931E-4A58-8006-33C301F5DE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E33C1CB1-3267-45EA-AC43-1797BB781622}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E33C1CB1-3267-45EA-AC43-1797BB781622}"/>
   </bookViews>
   <sheets>
     <sheet name="Outsourcing" sheetId="3" r:id="rId1"/>
     <sheet name="Shipping Cost Chart" sheetId="6" r:id="rId2"/>
     <sheet name="Shipping Cost" sheetId="1" r:id="rId3"/>
     <sheet name="Flowers" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Shipping Cost'!$A$2:$G$14</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="111">
   <si>
     <t>Zone</t>
   </si>
@@ -374,9 +374,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -456,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -473,21 +474,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -495,6 +484,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -606,7 +606,7 @@
             <c:numRef>
               <c:f>('Shipping Cost'!$E$3,'Shipping Cost'!$G$3)</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1575.63</c:v>
@@ -665,7 +665,7 @@
             <c:numRef>
               <c:f>('Shipping Cost'!$E$4,'Shipping Cost'!$G$4)</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2122.8000000000002</c:v>
@@ -724,7 +724,7 @@
             <c:numRef>
               <c:f>('Shipping Cost'!$E$5,'Shipping Cost'!$G$5)</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2869.44</c:v>
@@ -783,7 +783,7 @@
             <c:numRef>
               <c:f>('Shipping Cost'!$E$6,'Shipping Cost'!$G$6)</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>882.06000000000006</c:v>
@@ -842,7 +842,7 @@
             <c:numRef>
               <c:f>('Shipping Cost'!$E$7,'Shipping Cost'!$G$7)</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>512.4</c:v>
@@ -901,7 +901,7 @@
             <c:numRef>
               <c:f>('Shipping Cost'!$E$8,'Shipping Cost'!$G$8)</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>10.98</c:v>
@@ -962,7 +962,7 @@
             <c:numRef>
               <c:f>('Shipping Cost'!$E$9,'Shipping Cost'!$G$9)</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1001.01</c:v>
@@ -1093,7 +1093,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1761,7 +1761,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D5FC931-8C74-4723-9049-542EF550A455}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1773,7 +1773,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10202333" cy="7080250"/>
+    <xdr:ext cx="10223500" cy="7080250"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" descr="chart with the breakdown of&#10;the shipping cost">
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -2306,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFABFB4-AD7B-45DA-BE13-967DA90311BC}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -2316,41 +2316,43 @@
     <col min="2" max="2" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="85.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2367,15 +2369,15 @@
       <c r="D3" s="1">
         <v>861</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <f>(D3*$B$12)</f>
         <v>1575.63</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="15">
         <f>(D3*$B$13)</f>
         <v>1928.64</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="15">
         <f>(D3*$B$14)</f>
         <v>1687.56</v>
       </c>
@@ -2393,15 +2395,15 @@
       <c r="D4" s="1">
         <v>1160</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="15">
         <f t="shared" ref="E4:E9" si="0">(D4*$B$12)</f>
         <v>2122.8000000000002</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="15">
         <f t="shared" ref="F4:F9" si="1">(D4*$B$13)</f>
         <v>2598.4</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="15">
         <f t="shared" ref="G4:G9" si="2">(D4*$B$14)</f>
         <v>2273.6</v>
       </c>
@@ -2419,15 +2421,15 @@
       <c r="D5" s="1">
         <v>1568</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>2869.44</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
         <v>3512.32</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="15">
         <f t="shared" si="2"/>
         <v>3073.2799999999997</v>
       </c>
@@ -2445,15 +2447,15 @@
       <c r="D6" s="1">
         <v>482</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>882.06000000000006</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
         <v>1079.68</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="15">
         <f t="shared" si="2"/>
         <v>944.72</v>
       </c>
@@ -2471,15 +2473,15 @@
       <c r="D7" s="1">
         <v>280</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>512.4</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>627.20000000000005</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="15">
         <f t="shared" si="2"/>
         <v>548.79999999999995</v>
       </c>
@@ -2497,15 +2499,15 @@
       <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>10.98</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="15">
         <f t="shared" si="1"/>
         <v>13.440000000000001</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="15">
         <f t="shared" si="2"/>
         <v>11.76</v>
       </c>
@@ -2523,15 +2525,15 @@
       <c r="D9" s="1">
         <v>547</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>1001.01</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="15">
         <f t="shared" si="1"/>
         <v>1225.2800000000002</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="15">
         <f t="shared" si="2"/>
         <v>1072.1199999999999</v>
       </c>
@@ -2540,15 +2542,15 @@
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <f>SUM(E3:E9)</f>
         <v>8974.32</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <f t="shared" ref="F10:G10" si="3">SUM(F3:F9)</f>
         <v>10984.960000000003</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <f t="shared" si="3"/>
         <v>9611.84</v>
       </c>
@@ -2571,15 +2573,15 @@
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="8">
         <f>MIN(E3:E10)</f>
         <v>10.98</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <f t="shared" ref="F12:G12" si="4">MIN(F3:F10)</f>
         <v>13.440000000000001</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="8">
         <f t="shared" si="4"/>
         <v>11.76</v>
       </c>
@@ -2594,15 +2596,15 @@
       <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="8">
         <f>AVERAGE(E3:E10)</f>
         <v>2243.58</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <f t="shared" ref="F13:G13" si="5">AVERAGE(F3:F10)</f>
         <v>2746.2400000000007</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="8">
         <f t="shared" si="5"/>
         <v>2402.96</v>
       </c>
@@ -2617,15 +2619,15 @@
       <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="8">
         <f>MAX(E3:E10)</f>
         <v>8974.32</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="8">
         <f t="shared" ref="F14:G14" si="6">MAX(F3:F10)</f>
         <v>10984.960000000003</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="8">
         <f t="shared" si="6"/>
         <v>9611.84</v>
       </c>
@@ -2644,9 +2646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4261BA-C8E1-4AF3-920A-8B29D56BC588}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A32" sqref="A32"/>
+      <selection pane="topRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -2658,34 +2660,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3068,10 +3070,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="2">
         <f>COUNTA(C2:C28)</f>
         <v>6</v>
@@ -3102,10 +3104,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="2">
         <f>SUMIF(C2:C28,"=x",$J$2:$J$28)</f>
         <v>3672</v>
@@ -3147,688 +3149,420 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B65EB6-F3E6-4517-A8F3-7B9324D41139}">
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27539C3E-B7B6-4183-8ABD-8426085C7F6F}">
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
+        <f>COUNTA(#REF!)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="e">
+        <f>SUMIF(#REF!,"=x",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="3">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <f>COUNTA(#REF!)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="e">
+        <f>SUMIF(#REF!,"=x",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2">
+        <f>COUNTA(#REF!)</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="2" t="e">
+        <f>SUMIF(#REF!,"=x",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="3">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
+        <f>COUNTA(#REF!)</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="2" t="e">
+        <f>SUMIF(#REF!,"=x",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="3">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <f>COUNTA(#REF!)</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="2" t="e">
+        <f>SUMIF(#REF!,"=x",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <f>COUNTA(#REF!)</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="2" t="e">
+        <f>SUMIF(#REF!,"=x",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>46</v>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
+        <f>COUNTA(#REF!)</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="2" t="e">
+        <f>SUMIF(#REF!,"=x",#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>245</v>
+      </c>
+      <c r="B10" s="3">
+        <v>300</v>
+      </c>
+      <c r="C10" s="3">
+        <v>245</v>
+      </c>
+      <c r="D10" s="3">
+        <v>754</v>
+      </c>
+      <c r="E10" s="3">
+        <v>185</v>
+      </c>
+      <c r="F10" s="3">
+        <v>456</v>
+      </c>
+      <c r="G10" s="3">
+        <v>358</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>120</v>
       </c>
       <c r="J10" s="3">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="3">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3">
+      <c r="K10" s="3">
         <v>568</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3">
+      <c r="L10" s="3">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="M10" s="3">
         <v>206</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="3">
+      <c r="N10" s="3">
         <v>650</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="3">
+      <c r="O10" s="3">
         <v>354</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="3">
+      <c r="P10" s="3">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A29" s="7"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A30" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="2">
-        <f>COUNTA(C2:C28)</f>
-        <v>6</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" ref="D30:I30" si="0">COUNTA(D2:D28)</f>
-        <v>3</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="2">
-        <f>SUMIF(C2:C28,"=x",$J$2:$J$28)</f>
-        <v>3672</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" ref="D31:I31" si="1">SUMIF(D2:D28,"=x",$J$2:$J$28)</f>
-        <v>905</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="1"/>
-        <v>2085</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="1"/>
-        <v>1176</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="1"/>
-        <v>1023</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
-        <v>351</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-      <c r="J31" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="0a772d76-d47d-4a46-9185-0577efcb2325">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4043,23 +3777,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="0a772d76-d47d-4a46-9185-0577efcb2325">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE9330F6-3C43-4FA0-BAA4-0C4BF6005289}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7C9D5E-8334-4BF2-BD8C-B556B376DEB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b3feda1e-f783-453f-a59d-27f4b6030704"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0a772d76-d47d-4a46-9185-0577efcb2325"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4084,18 +3822,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7C9D5E-8334-4BF2-BD8C-B556B376DEB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE9330F6-3C43-4FA0-BAA4-0C4BF6005289}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b3feda1e-f783-453f-a59d-27f4b6030704"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0a772d76-d47d-4a46-9185-0577efcb2325"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>